--- a/hacking_the_simplespectro/experiments/Results_Blue53_Experiment_3.xlsx
+++ b/hacking_the_simplespectro/experiments/Results_Blue53_Experiment_3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yann\Documents\EPFL\Internship\Colombia\Bioreactor\Spectrophotometer\Experiment\Experimento3_Azul53\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yann\simple-spectro\hacking_the_simplespectro\experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E81B805-2106-42CE-BDDB-8FE2EF11DDB1}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20E2D4C8-004D-49FC-88C4-97831D338CA3}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{1D5744FF-65D2-45FC-8D42-04693C4EBBF6}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="179017"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,9 +26,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="40">
-  <si>
-    <t>Experiment 2</t>
-  </si>
   <si>
     <t>Uncertainty</t>
   </si>
@@ -146,6 +142,9 @@
   </si>
   <si>
     <t>'0.01''</t>
+  </si>
+  <si>
+    <t>Experiment 3</t>
   </si>
 </sst>
 </file>
@@ -6742,8 +6741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65181045-6EB3-47C9-A473-A6EEB3DADC82}">
   <dimension ref="A1:AJ16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="94" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="94" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6761,7 +6760,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B1" s="18" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="C1" s="18"/>
       <c r="D1" s="18"/>
@@ -6793,7 +6792,7 @@
       <c r="AD1" s="18"/>
       <c r="AE1" s="12"/>
       <c r="AG1" s="19" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH1" s="19"/>
       <c r="AI1" s="19"/>
@@ -6801,16 +6800,16 @@
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="C2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="D2" s="24" t="s">
         <v>4</v>
-      </c>
-      <c r="D2" s="24" t="s">
-        <v>5</v>
       </c>
       <c r="E2" s="24"/>
       <c r="F2" s="24"/>
@@ -6840,16 +6839,16 @@
       <c r="AD2" s="24"/>
       <c r="AE2" s="13"/>
       <c r="AG2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="AH2" s="1" t="s">
+      <c r="AI2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AI2" s="1" t="s">
+      <c r="AJ2" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.3">
@@ -6857,14 +6856,14 @@
       <c r="B3" s="20"/>
       <c r="C3" s="22"/>
       <c r="D3" s="25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" s="26"/>
       <c r="F3" s="26"/>
       <c r="G3" s="26"/>
       <c r="H3" s="27"/>
       <c r="I3" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J3" s="17"/>
       <c r="K3" s="17"/>
@@ -6889,16 +6888,16 @@
       <c r="AD3" s="17"/>
       <c r="AE3" s="14"/>
       <c r="AG3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH3" s="2">
         <v>0.1</v>
       </c>
       <c r="AI3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ3" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="AJ3" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.3">
@@ -6906,14 +6905,14 @@
       <c r="B4" s="20"/>
       <c r="C4" s="22"/>
       <c r="D4" s="25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4" s="26"/>
       <c r="F4" s="26"/>
       <c r="G4" s="26"/>
       <c r="H4" s="27"/>
       <c r="I4" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J4" s="17"/>
       <c r="K4" s="17"/>
@@ -6926,7 +6925,7 @@
       <c r="R4" s="17"/>
       <c r="S4" s="17"/>
       <c r="T4" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="U4" s="17"/>
       <c r="V4" s="17"/>
@@ -6940,16 +6939,16 @@
       <c r="AD4" s="17"/>
       <c r="AE4" s="14"/>
       <c r="AG4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH4" s="3">
         <v>5</v>
       </c>
       <c r="AI4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ4" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="AJ4" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.3">
@@ -6957,89 +6956,89 @@
       <c r="B5" s="20"/>
       <c r="C5" s="23"/>
       <c r="D5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" s="1" t="s">
+      <c r="Q5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="V5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="W5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="X5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="Y5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O5" s="1" t="s">
+      <c r="Z5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="P5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="R5" s="1" t="s">
+      <c r="AD5" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="X5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD5" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="AE5" s="15"/>
       <c r="AG5" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AH5" s="5"/>
       <c r="AI5" s="6"/>
@@ -7065,7 +7064,7 @@
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I6" s="11">
         <v>10946</v>
@@ -7096,7 +7095,7 @@
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
       <c r="S6" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T6" s="11">
         <v>141366</v>
@@ -7127,7 +7126,7 @@
       <c r="AB6" s="2"/>
       <c r="AC6" s="2"/>
       <c r="AD6" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AE6" s="16"/>
       <c r="AG6" s="8">
@@ -7161,7 +7160,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I7" s="2">
         <v>3714</v>
@@ -7197,7 +7196,7 @@
         <v>0</v>
       </c>
       <c r="S7" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T7" s="2">
         <v>439350</v>
@@ -7233,7 +7232,7 @@
         <v>0</v>
       </c>
       <c r="AD7" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AE7" s="16">
         <f>(AC7-R7)/2.3</f>
@@ -7269,7 +7268,7 @@
         <v>0.55039250565056186</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I8" s="11">
         <v>15</v>
@@ -7306,7 +7305,7 @@
         <v>2.4574742998181955</v>
       </c>
       <c r="S8" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T8" s="11">
         <v>22</v>
@@ -7343,7 +7342,7 @@
         <v>4.2363223642747361</v>
       </c>
       <c r="AD8" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AE8" s="16">
         <f t="shared" ref="AE8:AE15" si="8">(AC8-R8)/2.3</f>
@@ -7380,7 +7379,7 @@
         <v>0.39685962419890386</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I9" s="11">
         <v>18</v>
@@ -7417,7 +7416,7 @@
         <v>2.3201851248234662</v>
       </c>
       <c r="S9" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T9" s="11">
         <v>138</v>
@@ -7454,7 +7453,7 @@
         <v>3.4659964514030488</v>
       </c>
       <c r="AD9" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AE9" s="16">
         <f t="shared" si="8"/>
@@ -7491,7 +7490,7 @@
         <v>0.32098090217580799</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I10" s="11">
         <v>30</v>
@@ -7528,7 +7527,7 @@
         <v>2.1140404556011267</v>
       </c>
       <c r="S10" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T10" s="11">
         <v>335</v>
@@ -7565,7 +7564,7 @@
         <v>3.0792543425324848</v>
       </c>
       <c r="AD10" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AE10" s="16">
         <f t="shared" si="8"/>
@@ -7602,7 +7601,7 @@
         <v>0.26475780268257976</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I11" s="11">
         <v>42</v>
@@ -7639,7 +7638,7 @@
         <v>1.9182051383496885</v>
       </c>
       <c r="S11" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T11" s="11">
         <v>921</v>
@@ -7676,7 +7675,7 @@
         <v>2.6390190348062901</v>
       </c>
       <c r="AD11" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AE11" s="16">
         <f t="shared" si="8"/>
@@ -7713,7 +7712,7 @@
         <v>0.22125493689813641</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I12" s="11">
         <v>46</v>
@@ -7750,7 +7749,7 @@
         <v>1.9198166225062678</v>
       </c>
       <c r="S12" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T12" s="11">
         <v>1921</v>
@@ -7787,7 +7786,7 @@
         <v>2.3189669219254458</v>
       </c>
       <c r="AD12" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AE12" s="16">
         <f t="shared" si="8"/>
@@ -7824,7 +7823,7 @@
         <v>0.20451368458918953</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I13" s="11">
         <v>67</v>
@@ -7861,7 +7860,7 @@
         <v>1.7232285351336334</v>
       </c>
       <c r="S13" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T13" s="11">
         <v>3086</v>
@@ -7898,7 +7897,7 @@
         <v>2.1141767279863579</v>
       </c>
       <c r="AD13" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AE13" s="16">
         <f t="shared" si="8"/>
@@ -7935,7 +7934,7 @@
         <v>0.16924379878342635</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I14" s="11">
         <v>89</v>
@@ -7972,7 +7971,7 @@
         <v>1.6107883440243067</v>
       </c>
       <c r="S14" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T14" s="11">
         <v>5151</v>
@@ -8009,7 +8008,7 @@
         <v>1.8936882278862797</v>
       </c>
       <c r="AD14" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AE14" s="16">
         <f t="shared" si="8"/>
@@ -8046,7 +8045,7 @@
         <v>0.14898885112847576</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I15" s="11">
         <v>119</v>
@@ -8083,7 +8082,7 @@
         <v>1.4856515255508154</v>
       </c>
       <c r="S15" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T15" s="11">
         <v>6823</v>
@@ -8120,7 +8119,7 @@
         <v>1.7721096885008172</v>
       </c>
       <c r="AD15" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AE15" s="16">
         <f t="shared" si="8"/>
@@ -8133,7 +8132,7 @@
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.3">
       <c r="AG16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/hacking_the_simplespectro/experiments/Results_Blue53_Experiment_3.xlsx
+++ b/hacking_the_simplespectro/experiments/Results_Blue53_Experiment_3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yann\simple-spectro\hacking_the_simplespectro\experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20E2D4C8-004D-49FC-88C4-97831D338CA3}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF5F6774-08B6-41CC-818A-2825AEA0722F}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{1D5744FF-65D2-45FC-8D42-04693C4EBBF6}"/>
   </bookViews>
@@ -6741,8 +6741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65181045-6EB3-47C9-A473-A6EEB3DADC82}">
   <dimension ref="A1:AJ16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="94" workbookViewId="0">
+      <selection activeCell="AB9" sqref="AB9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/hacking_the_simplespectro/experiments/Results_Blue53_Experiment_3.xlsx
+++ b/hacking_the_simplespectro/experiments/Results_Blue53_Experiment_3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yann\simple-spectro\hacking_the_simplespectro\experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF5F6774-08B6-41CC-818A-2825AEA0722F}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D481B2-9608-4BC3-9C0D-27334F654EEA}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{1D5744FF-65D2-45FC-8D42-04693C4EBBF6}"/>
   </bookViews>
@@ -111,9 +111,6 @@
     <t xml:space="preserve">Concentration uncertainty [mg/L] </t>
   </si>
   <si>
-    <t>Note that for each addition of water to the bioreactor, the same uncertainty applies, hence, the uncertainties adds up (we will use the rms method)</t>
-  </si>
-  <si>
     <t>I test 1</t>
   </si>
   <si>
@@ -145,6 +142,9 @@
   </si>
   <si>
     <t>Experiment 3</t>
+  </si>
+  <si>
+    <t>Note that for each addition of water to the bioreactor, the same uncertainty applies, hence, the uncertainties adds up (we use the rms method)</t>
   </si>
 </sst>
 </file>
@@ -6741,8 +6741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65181045-6EB3-47C9-A473-A6EEB3DADC82}">
   <dimension ref="A1:AJ16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="AB9" sqref="AB9"/>
+    <sheetView tabSelected="1" zoomScale="52" workbookViewId="0">
+      <selection activeCell="AG8" sqref="AG8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6760,7 +6760,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B1" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C1" s="18"/>
       <c r="D1" s="18"/>
@@ -6974,19 +6974,19 @@
         <v>20</v>
       </c>
       <c r="J5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="O5" s="1" t="s">
         <v>22</v>
@@ -7007,19 +7007,19 @@
         <v>20</v>
       </c>
       <c r="U5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="V5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="V5" s="1" t="s">
+      <c r="W5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="W5" s="1" t="s">
+      <c r="X5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="X5" s="1" t="s">
+      <c r="Y5" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="Y5" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="Z5" s="1" t="s">
         <v>22</v>
@@ -7064,7 +7064,7 @@
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I6" s="11">
         <v>10946</v>
@@ -7095,7 +7095,7 @@
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
       <c r="S6" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T6" s="11">
         <v>141366</v>
@@ -7126,7 +7126,7 @@
       <c r="AB6" s="2"/>
       <c r="AC6" s="2"/>
       <c r="AD6" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AE6" s="16"/>
       <c r="AG6" s="8">
@@ -7160,7 +7160,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I7" s="2">
         <v>3714</v>
@@ -7196,7 +7196,7 @@
         <v>0</v>
       </c>
       <c r="S7" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T7" s="2">
         <v>439350</v>
@@ -7232,7 +7232,7 @@
         <v>0</v>
       </c>
       <c r="AD7" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AE7" s="16">
         <f>(AC7-R7)/2.3</f>
@@ -7268,7 +7268,7 @@
         <v>0.55039250565056186</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I8" s="11">
         <v>15</v>
@@ -7305,7 +7305,7 @@
         <v>2.4574742998181955</v>
       </c>
       <c r="S8" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T8" s="11">
         <v>22</v>
@@ -7342,7 +7342,7 @@
         <v>4.2363223642747361</v>
       </c>
       <c r="AD8" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AE8" s="16">
         <f t="shared" ref="AE8:AE15" si="8">(AC8-R8)/2.3</f>
@@ -7379,7 +7379,7 @@
         <v>0.39685962419890386</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I9" s="11">
         <v>18</v>
@@ -7416,7 +7416,7 @@
         <v>2.3201851248234662</v>
       </c>
       <c r="S9" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T9" s="11">
         <v>138</v>
@@ -7453,7 +7453,7 @@
         <v>3.4659964514030488</v>
       </c>
       <c r="AD9" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AE9" s="16">
         <f t="shared" si="8"/>
@@ -7490,7 +7490,7 @@
         <v>0.32098090217580799</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I10" s="11">
         <v>30</v>
@@ -7527,7 +7527,7 @@
         <v>2.1140404556011267</v>
       </c>
       <c r="S10" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T10" s="11">
         <v>335</v>
@@ -7564,7 +7564,7 @@
         <v>3.0792543425324848</v>
       </c>
       <c r="AD10" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AE10" s="16">
         <f t="shared" si="8"/>
@@ -7601,7 +7601,7 @@
         <v>0.26475780268257976</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I11" s="11">
         <v>42</v>
@@ -7638,7 +7638,7 @@
         <v>1.9182051383496885</v>
       </c>
       <c r="S11" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T11" s="11">
         <v>921</v>
@@ -7675,7 +7675,7 @@
         <v>2.6390190348062901</v>
       </c>
       <c r="AD11" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AE11" s="16">
         <f t="shared" si="8"/>
@@ -7712,7 +7712,7 @@
         <v>0.22125493689813641</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I12" s="11">
         <v>46</v>
@@ -7749,7 +7749,7 @@
         <v>1.9198166225062678</v>
       </c>
       <c r="S12" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T12" s="11">
         <v>1921</v>
@@ -7786,7 +7786,7 @@
         <v>2.3189669219254458</v>
       </c>
       <c r="AD12" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AE12" s="16">
         <f t="shared" si="8"/>
@@ -7823,7 +7823,7 @@
         <v>0.20451368458918953</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I13" s="11">
         <v>67</v>
@@ -7860,7 +7860,7 @@
         <v>1.7232285351336334</v>
       </c>
       <c r="S13" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T13" s="11">
         <v>3086</v>
@@ -7897,7 +7897,7 @@
         <v>2.1141767279863579</v>
       </c>
       <c r="AD13" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AE13" s="16">
         <f t="shared" si="8"/>
@@ -7934,7 +7934,7 @@
         <v>0.16924379878342635</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I14" s="11">
         <v>89</v>
@@ -7971,7 +7971,7 @@
         <v>1.6107883440243067</v>
       </c>
       <c r="S14" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T14" s="11">
         <v>5151</v>
@@ -8008,7 +8008,7 @@
         <v>1.8936882278862797</v>
       </c>
       <c r="AD14" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AE14" s="16">
         <f t="shared" si="8"/>
@@ -8045,7 +8045,7 @@
         <v>0.14898885112847576</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I15" s="11">
         <v>119</v>
@@ -8082,7 +8082,7 @@
         <v>1.4856515255508154</v>
       </c>
       <c r="S15" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T15" s="11">
         <v>6823</v>
@@ -8119,7 +8119,7 @@
         <v>1.7721096885008172</v>
       </c>
       <c r="AD15" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AE15" s="16">
         <f t="shared" si="8"/>
@@ -8132,7 +8132,7 @@
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.3">
       <c r="AG16" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/hacking_the_simplespectro/experiments/Results_Blue53_Experiment_3.xlsx
+++ b/hacking_the_simplespectro/experiments/Results_Blue53_Experiment_3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yann\simple-spectro\hacking_the_simplespectro\experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D481B2-9608-4BC3-9C0D-27334F654EEA}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09E4B429-B628-43DD-B571-B4BD2F9232E6}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{1D5744FF-65D2-45FC-8D42-04693C4EBBF6}"/>
   </bookViews>
